--- a/src/main/resources/excel/temp.xlsx
+++ b/src/main/resources/excel/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>投保单号</t>
   </si>
@@ -193,6 +193,27 @@
   </si>
   <si>
     <t>1078425384</t>
+  </si>
+  <si>
+    <t>1285054049</t>
+  </si>
+  <si>
+    <t>1577380155</t>
+  </si>
+  <si>
+    <t>1752150371</t>
+  </si>
+  <si>
+    <t>1237868218</t>
+  </si>
+  <si>
+    <t>1221462944</t>
+  </si>
+  <si>
+    <t>1492219255</t>
+  </si>
+  <si>
+    <t>1472734043</t>
   </si>
 </sst>
 </file>
@@ -622,7 +643,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>

--- a/src/main/resources/excel/temp.xlsx
+++ b/src/main/resources/excel/temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>投保单号</t>
   </si>
@@ -113,107 +113,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自动测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1176869917</t>
+  </si>
+  <si>
     <t>梁荣锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000016</t>
-  </si>
-  <si>
-    <t>1737619252</t>
-  </si>
-  <si>
-    <t>1715323740</t>
-  </si>
-  <si>
-    <t>1666414220</t>
-  </si>
-  <si>
-    <t>1117583497</t>
-  </si>
-  <si>
-    <t>1599522071</t>
-  </si>
-  <si>
-    <t>1279694599</t>
-  </si>
-  <si>
-    <t>1889661553</t>
-  </si>
-  <si>
-    <t>1614424567</t>
-  </si>
-  <si>
-    <t>1712991475</t>
-  </si>
-  <si>
-    <t>1885221595</t>
-  </si>
-  <si>
-    <t>1419169147</t>
-  </si>
-  <si>
-    <t>1404947041</t>
-  </si>
-  <si>
-    <t>1643970868</t>
-  </si>
-  <si>
-    <t>1082760744</t>
-  </si>
-  <si>
-    <t>1426035745</t>
-  </si>
-  <si>
-    <t>1195506456</t>
-  </si>
-  <si>
-    <t>1019111133</t>
-  </si>
-  <si>
-    <t>1590983560</t>
-  </si>
-  <si>
-    <t>1625590028</t>
-  </si>
-  <si>
-    <t>1881876680</t>
-  </si>
-  <si>
-    <t>1078425384</t>
-  </si>
-  <si>
-    <t>1285054049</t>
-  </si>
-  <si>
-    <t>1577380155</t>
-  </si>
-  <si>
-    <t>1752150371</t>
-  </si>
-  <si>
-    <t>1237868218</t>
-  </si>
-  <si>
-    <t>1221462944</t>
-  </si>
-  <si>
-    <t>1492219255</t>
-  </si>
-  <si>
-    <t>1472734043</t>
+    <t>1981481133</t>
+  </si>
+  <si>
+    <t>1800382777</t>
+  </si>
+  <si>
+    <t>1919578434</t>
+  </si>
+  <si>
+    <t>1516547399</t>
   </si>
 </sst>
 </file>
@@ -570,7 +494,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,13 +567,13 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
@@ -667,16 +591,16 @@
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>23</v>
